--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qianqians\Documents\workspace\AutoChess\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutoChess\AutoChess\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4972AD44-E292-48B9-AF89-BD7B88EF51A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297B365D-4310-4007-9251-411283C5841E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="2" xr2:uid="{D724F234-A033-4A6D-8515-80A5A5013602}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="2" xr2:uid="{D724F234-A033-4A6D-8515-80A5A5013602}"/>
   </bookViews>
   <sheets>
-    <sheet name="role" sheetId="1" r:id="rId1"/>
-    <sheet name="prop" sheetId="2" r:id="rId2"/>
-    <sheet name="skill" sheetId="3" r:id="rId3"/>
+    <sheet name="Role" sheetId="1" r:id="rId1"/>
+    <sheet name="Skill" sheetId="3" r:id="rId2"/>
+    <sheet name="Food" sheetId="2" r:id="rId3"/>
+    <sheet name="Equip" sheetId="6" r:id="rId4"/>
+    <sheet name="Fetters" sheetId="4" r:id="rId5"/>
+    <sheet name="Hermes" sheetId="5" r:id="rId6"/>
+    <sheet name="FettersEffect" sheetId="7" r:id="rId7"/>
+    <sheet name="HermesEffect" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="151">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,50 +42,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>use_mode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>角色ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,16 +79,6 @@
   </si>
   <si>
     <t>道具名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用模式:
-1. 装备
-2. 使用后消失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect_scope</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -149,50 +104,621 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>effect_time</t>
+    <t>Price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectScope</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackBonus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HpBonus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Res</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SummonId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SummonLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色所属主题群系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色所属羁绊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fetters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羁绊id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羁绊名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hermes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色等阶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>装备id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊效果数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vaule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊效果数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型：
+1、武器
+2、防具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果：
+1、提高生命值
+2、提高攻击力
+3、提供buff等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resoures/Texture/…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家仆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂战士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海盗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>术士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健身达人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巫师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祭祀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔术师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保险专员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣骑士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁匠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合额外获得金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受伤时，攻击力提升</t>
+  </si>
+  <si>
+    <t>海盗角色死亡后，对所有角色造成伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放技能时，随机友方单位额外增加生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>术士单位晕厥时，召唤一个虚空虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>机械师角色会每回合修建一个最终战斗机甲，机甲在修建数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4/20/40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时会获得不同的效果（机甲不占角色格，全部机甲羁绊英雄死亡后召唤出现）</t>
+    </r>
+  </si>
+  <si>
+    <t>受到强化（吃食物）时，额外提升生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>商店每回合第一次刷新会得到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>份免费的沙拉</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出售棋子时，巫师提升生命值、攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时，随机使一名角色获得生命值提升、攻击力提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔术师将会为你带来三场精彩的魔术表演,
+随机调换你全部伙伴的位置，然后让它们+3生命值和3攻击力，
+魔术师所有棋子的血量等于血量最高的伙伴的属性,
+将你的第一个棋子与对方第一个棋子交换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果上一场游戏失败，获得额外金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣骑士角色所受到的伤害，会由全部圣骑士平均进行分摊</t>
+  </si>
+  <si>
+    <t>回合结束后，商店刷新一把免费的铁匠特制武器</t>
+  </si>
+  <si>
+    <t>汪洋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丛林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草原</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洞穴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出一颗进化石</t>
+  </si>
+  <si>
+    <t>Low</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intensifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hight</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Hight </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Economy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Summon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能类型
+Intensifier：强化
+Attack：进攻
+Summon：召唤
+Support：支援
+Economy：经济</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ObjCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生效对象数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level1Value_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level1Value_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level2Value_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level2Value_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level3Value_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level3Value_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">召唤的角色id </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤的角色等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unknown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2星效果数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3星效果数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage1value_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage1value_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage2value_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage2value_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage3value_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage3value_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage4value_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage4value_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1阶段数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2阶段数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3阶段数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4阶段数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SummonId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SummonLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤物Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤物等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1星效果数值
+(生命值或其他)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1星效果数值
+(攻击力或其他)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2,3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,2,3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级
+Low
+Normal
+Hight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果:
+1.加属性
+2.回复生命
+3.造成远程伤害
+4.召唤对象
+5.获得金币
+6.交换属性
+7.获得护盾
+8.商店更新
+9.改变站位
+10.获得装备
+11.抗伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[6]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>生效时间:
-1. 战斗回合前
-2. 战斗回合后</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果:
-1. 增加本方前排角色攻击力
-2. 增加本方前排角色血量
-3. 本方角色死亡后召唤新的角色入场
-4. 削弱敌方前排角色攻击力
-5. 对敌方前排角色造成伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect[1,2,4,5]效果数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>summon_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">effect[3]召唤的角色id </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>summon_level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect[3]召唤的角色等级</t>
+1.出售时
+2.购买时
+3.升级时
+4.吃食物时
+5.回合开始
+6.回合结束
+7.战斗开始
+8.攻击时
+9.攻击前
+10.受伤时
+11.晕厥时
+12.倒下时
+13.我方召唤或位置改变
+14.敌方召唤或位置改变
+15.攻击后
+16.战斗时
+17.释放技能时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -200,7 +726,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +739,50 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -239,12 +809,39 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,87 +1157,544 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642740F6-283A-42CF-A8C5-3BAFD447C889}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" customWidth="1"/>
+    <col min="3" max="3" width="12.3984375" customWidth="1"/>
+    <col min="4" max="4" width="11.73046875" customWidth="1"/>
+    <col min="5" max="5" width="12.59765625" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.3984375" customWidth="1"/>
+    <col min="8" max="8" width="13.86328125" customWidth="1"/>
+    <col min="9" max="9" width="16.265625" customWidth="1"/>
+    <col min="10" max="10" width="15.265625" customWidth="1"/>
+    <col min="11" max="11" width="18.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="K2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="K7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="K8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="K9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="K10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="K11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="K12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="K13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="K14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="K15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A16">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="K16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A17">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="K17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A18">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="K18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A19">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="K19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A20">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="K20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A21">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A22">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1</v>
+      <c r="K22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="K23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="K24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="K25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="K26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="K27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="K28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="K29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="K30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="K31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="K32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="K33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="K34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="K35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="K36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="K37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="K38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="K39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="K40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="K41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="K42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="K43" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="K44" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -650,89 +1704,2608 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C4E680-D0CE-4D7C-9FDF-50C6861C2658}">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56C38EB-46F7-44FF-886B-4EDDC3D49D4A}">
+  <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.4140625" customWidth="1"/>
-    <col min="5" max="5" width="10.9140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="16.73046875" customWidth="1"/>
+    <col min="3" max="3" width="15.86328125" customWidth="1"/>
+    <col min="4" max="4" width="14.46484375" customWidth="1"/>
+    <col min="5" max="5" width="25.86328125" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="13.265625" customWidth="1"/>
+    <col min="9" max="9" width="13.1328125" customWidth="1"/>
+    <col min="10" max="10" width="12.1328125" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="12.1328125" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="14" max="14" width="11.3984375" customWidth="1"/>
+    <col min="15" max="15" width="13.86328125" customWidth="1"/>
+    <col min="16" max="17" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M1" t="s">
+        <v>118</v>
+      </c>
+      <c r="N1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="249.75" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N2" t="s">
+        <v>119</v>
+      </c>
+      <c r="O2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1</v>
+      </c>
+      <c r="I4" s="6">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4" s="6">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4" s="6">
+        <v>3</v>
+      </c>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6">
+        <v>3</v>
+      </c>
+      <c r="I5" s="6">
+        <v>3</v>
+      </c>
+      <c r="J5">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K5" s="6">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5" s="6">
+        <v>5</v>
+      </c>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8" s="6">
+        <v>2</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6">
+        <v>2</v>
+      </c>
+      <c r="I9" s="6">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9" s="6">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9" s="6">
+        <v>4</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="O9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6">
+        <v>5</v>
+      </c>
+      <c r="I10" s="6">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>6</v>
+      </c>
+      <c r="K10" s="6">
+        <v>6</v>
+      </c>
+      <c r="L10">
+        <v>7</v>
+      </c>
+      <c r="M10" s="6">
+        <v>7</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="O10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>1</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0</v>
+      </c>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6">
+        <v>1</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12" s="6">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12" s="6">
+        <v>3</v>
+      </c>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" s="6">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" s="6">
+        <v>3</v>
+      </c>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" s="6">
+        <v>2</v>
+      </c>
+      <c r="I14" s="6">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14" s="6">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+      <c r="M14" s="6">
+        <v>4</v>
+      </c>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6">
+        <v>1</v>
+      </c>
+      <c r="I15" s="6">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15" s="6">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="M15" s="6">
+        <v>3</v>
+      </c>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>7</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0</v>
+      </c>
+      <c r="K16" s="6">
+        <v>0</v>
+      </c>
+      <c r="L16" s="6">
+        <v>0</v>
+      </c>
+      <c r="M16" s="6">
+        <v>0</v>
+      </c>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17" s="6">
+        <v>1</v>
+      </c>
+      <c r="I17" s="6">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17" s="6">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="M17" s="6">
+        <v>3</v>
+      </c>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" s="6">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" s="6">
+        <v>1</v>
+      </c>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>6</v>
+      </c>
+      <c r="H19" s="6">
+        <v>2</v>
+      </c>
+      <c r="I19" s="6">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19" s="6">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>4</v>
+      </c>
+      <c r="M19" s="6">
+        <v>4</v>
+      </c>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20">
+        <v>11</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20" s="6">
+        <v>1</v>
+      </c>
+      <c r="I20" s="6">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20" s="6">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+      <c r="M20" s="6">
+        <v>3</v>
+      </c>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21" s="6">
+        <v>1</v>
+      </c>
+      <c r="I21" s="6">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21" s="6">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>3</v>
+      </c>
+      <c r="M21" s="6">
+        <v>3</v>
+      </c>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22">
+        <v>11</v>
+      </c>
+      <c r="F22">
+        <v>7</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0</v>
+      </c>
+      <c r="K22" s="6">
+        <v>0</v>
+      </c>
+      <c r="L22" s="6">
+        <v>0</v>
+      </c>
+      <c r="M22" s="6">
+        <v>0</v>
+      </c>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23">
+        <v>11</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" s="6">
+        <v>5</v>
+      </c>
+      <c r="I23" s="6">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>6</v>
+      </c>
+      <c r="K23" s="6">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>7</v>
+      </c>
+      <c r="M23" s="6">
+        <v>0</v>
+      </c>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0</v>
+      </c>
+      <c r="J24" s="6">
+        <v>0</v>
+      </c>
+      <c r="K24" s="6">
+        <v>0</v>
+      </c>
+      <c r="L24" s="6">
+        <v>0</v>
+      </c>
+      <c r="M24" s="6">
+        <v>0</v>
+      </c>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25">
+        <v>15</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>6</v>
+      </c>
+      <c r="H25" s="6">
+        <v>2</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+      <c r="K25" s="6">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>4</v>
+      </c>
+      <c r="M25" s="6">
+        <v>0</v>
+      </c>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A26">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26">
+        <v>7</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0</v>
+      </c>
+      <c r="J26" s="6">
+        <v>0</v>
+      </c>
+      <c r="K26" s="6">
+        <v>0</v>
+      </c>
+      <c r="L26" s="6">
+        <v>0</v>
+      </c>
+      <c r="M26" s="6">
+        <v>0</v>
+      </c>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" s="6">
+        <v>1</v>
+      </c>
+      <c r="I27" s="6">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="K27" s="6">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>3</v>
+      </c>
+      <c r="M27" s="6">
+        <v>0</v>
+      </c>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" s="6">
+        <v>2</v>
+      </c>
+      <c r="I28" s="6">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+      <c r="K28" s="6">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>4</v>
+      </c>
+      <c r="M28" s="6">
+        <v>0</v>
+      </c>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="F29">
+        <v>8</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" s="6">
+        <v>0</v>
+      </c>
+      <c r="I29" s="6">
+        <v>0</v>
+      </c>
+      <c r="J29" s="6">
+        <v>0</v>
+      </c>
+      <c r="K29" s="6">
+        <v>0</v>
+      </c>
+      <c r="L29" s="6">
+        <v>0</v>
+      </c>
+      <c r="M29" s="6">
+        <v>0</v>
+      </c>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>8</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30" s="6">
+        <v>0</v>
+      </c>
+      <c r="I30" s="6">
+        <v>0</v>
+      </c>
+      <c r="J30" s="6">
+        <v>0</v>
+      </c>
+      <c r="K30" s="6">
+        <v>0</v>
+      </c>
+      <c r="L30" s="6">
+        <v>0</v>
+      </c>
+      <c r="M30" s="6">
+        <v>0</v>
+      </c>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31">
+        <v>15</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31" s="6">
+        <v>5</v>
+      </c>
+      <c r="I31" s="6">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>6</v>
+      </c>
+      <c r="K31" s="6">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>7</v>
+      </c>
+      <c r="M31" s="6">
+        <v>0</v>
+      </c>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" t="s">
+        <v>109</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32">
+        <v>10</v>
+      </c>
+      <c r="F32">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32" s="6">
+        <v>0</v>
+      </c>
+      <c r="I32" s="6">
+        <v>0</v>
+      </c>
+      <c r="J32" s="6">
+        <v>0</v>
+      </c>
+      <c r="K32" s="6">
+        <v>0</v>
+      </c>
+      <c r="L32" s="6">
+        <v>0</v>
+      </c>
+      <c r="M32" s="6">
+        <v>0</v>
+      </c>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33">
+        <v>11</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33" s="6">
+        <v>2</v>
+      </c>
+      <c r="I33" s="6">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>3</v>
+      </c>
+      <c r="K33" s="6">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>4</v>
+      </c>
+      <c r="M33" s="6">
+        <v>3</v>
+      </c>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34">
+        <v>9</v>
+      </c>
+      <c r="F34">
+        <v>5</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" s="6">
+        <v>1</v>
+      </c>
+      <c r="I34" s="6">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+      <c r="K34" s="6">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>3</v>
+      </c>
+      <c r="M34" s="6">
+        <v>0</v>
+      </c>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35">
+        <v>10</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35" s="6">
+        <v>2</v>
+      </c>
+      <c r="I35" s="6">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>3</v>
+      </c>
+      <c r="K35" s="6">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>4</v>
+      </c>
+      <c r="M35" s="6">
+        <v>0</v>
+      </c>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36">
+        <v>11</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36" s="6">
+        <v>2</v>
+      </c>
+      <c r="I36" s="6">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>3</v>
+      </c>
+      <c r="K36" s="6">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>4</v>
+      </c>
+      <c r="M36" s="6">
+        <v>0</v>
+      </c>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E37">
+        <v>6</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37" s="6">
+        <v>0</v>
+      </c>
+      <c r="I37" s="6">
+        <v>0</v>
+      </c>
+      <c r="J37" s="6">
+        <v>0</v>
+      </c>
+      <c r="K37" s="6">
+        <v>0</v>
+      </c>
+      <c r="L37" s="6">
+        <v>0</v>
+      </c>
+      <c r="M37" s="6">
+        <v>0</v>
+      </c>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38">
+        <v>6</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38" s="6">
+        <v>1</v>
+      </c>
+      <c r="I38" s="6">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>2</v>
+      </c>
+      <c r="K38" s="6">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>3</v>
+      </c>
+      <c r="M38" s="6">
+        <v>0</v>
+      </c>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E39">
+        <v>5</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39" s="6">
+        <v>0</v>
+      </c>
+      <c r="I39" s="6">
+        <v>0</v>
+      </c>
+      <c r="J39" s="6">
+        <v>0</v>
+      </c>
+      <c r="K39" s="6">
+        <v>0</v>
+      </c>
+      <c r="L39" s="6">
+        <v>0</v>
+      </c>
+      <c r="M39" s="6">
+        <v>0</v>
+      </c>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40">
+        <v>14</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40" s="6">
+        <v>1</v>
+      </c>
+      <c r="I40" s="6">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+      <c r="K40" s="6">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>3</v>
+      </c>
+      <c r="M40" s="6">
+        <v>0</v>
+      </c>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41">
+        <v>11</v>
+      </c>
+      <c r="F41">
+        <v>9</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41" s="6">
+        <v>0</v>
+      </c>
+      <c r="I41" s="6">
+        <v>0</v>
+      </c>
+      <c r="J41" s="6">
+        <v>0</v>
+      </c>
+      <c r="K41" s="6">
+        <v>0</v>
+      </c>
+      <c r="L41" s="6">
+        <v>0</v>
+      </c>
+      <c r="M41" s="6">
+        <v>0</v>
+      </c>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E42">
+        <v>7</v>
+      </c>
+      <c r="F42">
+        <v>9</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="H42" s="6">
+        <v>0</v>
+      </c>
+      <c r="I42" s="6">
+        <v>0</v>
+      </c>
+      <c r="J42" s="6">
+        <v>0</v>
+      </c>
+      <c r="K42" s="6">
+        <v>0</v>
+      </c>
+      <c r="L42" s="6">
+        <v>0</v>
+      </c>
+      <c r="M42" s="6">
+        <v>0</v>
+      </c>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E43">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <v>6</v>
+      </c>
+      <c r="H43" s="6">
+        <v>2</v>
+      </c>
+      <c r="I43" s="6">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>3</v>
+      </c>
+      <c r="K43" s="6">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>4</v>
+      </c>
+      <c r="M43" s="6">
+        <v>0</v>
+      </c>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44" s="6">
+        <v>1</v>
+      </c>
+      <c r="I44" s="6">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>2</v>
+      </c>
+      <c r="K44" s="6">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>3</v>
+      </c>
+      <c r="M44" s="6">
+        <v>0</v>
+      </c>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
+      <c r="F45">
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45" s="6">
+        <v>1</v>
+      </c>
+      <c r="I45" s="6">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>2</v>
+      </c>
+      <c r="K45" s="6">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>3</v>
+      </c>
+      <c r="M45" s="6">
+        <v>0</v>
+      </c>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46" t="s">
+        <v>101</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E46">
+        <v>6</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46" s="6">
+        <v>2</v>
+      </c>
+      <c r="I46" s="6">
+        <v>2</v>
+      </c>
+      <c r="J46">
+        <v>3</v>
+      </c>
+      <c r="K46" s="6">
+        <v>3</v>
+      </c>
+      <c r="L46">
+        <v>4</v>
+      </c>
+      <c r="M46" s="6">
+        <v>4</v>
+      </c>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47" s="6">
+        <v>1</v>
+      </c>
+      <c r="I47" s="6">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>2</v>
+      </c>
+      <c r="K47" s="6">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>3</v>
+      </c>
+      <c r="M47" s="6">
+        <v>0</v>
+      </c>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E48">
+        <v>8</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48" s="6">
+        <v>0</v>
+      </c>
+      <c r="I48" s="6">
+        <v>0</v>
+      </c>
+      <c r="J48" s="6">
+        <v>0</v>
+      </c>
+      <c r="K48" s="6">
+        <v>0</v>
+      </c>
+      <c r="L48" s="6">
+        <v>0</v>
+      </c>
+      <c r="M48" s="6">
+        <v>0</v>
+      </c>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49">
+        <v>5</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49" s="6">
+        <v>1</v>
+      </c>
+      <c r="I49" s="6">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>2</v>
+      </c>
+      <c r="K49" s="6">
+        <v>2</v>
+      </c>
+      <c r="L49">
+        <v>3</v>
+      </c>
+      <c r="M49" s="6">
+        <v>3</v>
+      </c>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E50">
+        <v>6</v>
+      </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50" s="6">
+        <v>2</v>
+      </c>
+      <c r="I50" s="6">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>3</v>
+      </c>
+      <c r="K50" s="6">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>4</v>
+      </c>
+      <c r="M50" s="6">
+        <v>0</v>
+      </c>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" t="s">
+        <v>101</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E51">
+        <v>6</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51" s="6">
+        <v>0</v>
+      </c>
+      <c r="I51" s="6">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51" s="6">
+        <v>2</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51" s="6">
+        <v>3</v>
+      </c>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52" t="s">
+        <v>104</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+      <c r="H52" s="6">
+        <v>0</v>
+      </c>
+      <c r="I52" s="6">
+        <v>0</v>
+      </c>
+      <c r="J52" s="6">
+        <v>0</v>
+      </c>
+      <c r="K52" s="6">
+        <v>0</v>
+      </c>
+      <c r="L52" s="6">
+        <v>0</v>
+      </c>
+      <c r="M52" s="6">
+        <v>0</v>
+      </c>
+      <c r="N52" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="O52" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
+        <v>121</v>
+      </c>
+      <c r="C53" t="s">
+        <v>101</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E53">
+        <v>13</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53" s="6">
+        <v>2</v>
+      </c>
+      <c r="I53" s="6">
+        <v>2</v>
+      </c>
+      <c r="J53">
+        <v>3</v>
+      </c>
+      <c r="K53" s="6">
+        <v>3</v>
+      </c>
+      <c r="L53">
+        <v>4</v>
+      </c>
+      <c r="M53" s="6">
+        <v>4</v>
+      </c>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" t="s">
+        <v>109</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E54">
+        <v>16</v>
+      </c>
+      <c r="F54">
+        <v>12</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54" s="6">
+        <v>0</v>
+      </c>
+      <c r="I54" s="6">
+        <v>0</v>
+      </c>
+      <c r="J54" s="6">
+        <v>0</v>
+      </c>
+      <c r="K54" s="6">
+        <v>0</v>
+      </c>
+      <c r="L54" s="6">
+        <v>0</v>
+      </c>
+      <c r="M54" s="6">
+        <v>0</v>
+      </c>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>52</v>
+      </c>
+      <c r="B55" t="s">
+        <v>121</v>
+      </c>
+      <c r="C55" t="s">
+        <v>109</v>
+      </c>
+      <c r="D55" t="s">
+        <v>102</v>
+      </c>
+      <c r="E55">
+        <v>7</v>
+      </c>
+      <c r="F55">
+        <v>6</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="H55" s="6">
+        <v>0</v>
+      </c>
+      <c r="I55" s="6">
+        <v>0</v>
+      </c>
+      <c r="J55" s="6">
+        <v>0</v>
+      </c>
+      <c r="K55" s="6">
+        <v>0</v>
+      </c>
+      <c r="L55" s="6">
+        <v>0</v>
+      </c>
+      <c r="M55" s="6">
+        <v>0</v>
+      </c>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>53</v>
+      </c>
+      <c r="B56" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56" t="s">
+        <v>101</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E56">
+        <v>6</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>6</v>
+      </c>
+      <c r="H56" s="6">
+        <v>2</v>
+      </c>
+      <c r="I56">
+        <v>2</v>
+      </c>
+      <c r="J56">
+        <v>3</v>
+      </c>
+      <c r="K56">
+        <v>3</v>
+      </c>
+      <c r="L56">
+        <v>4</v>
+      </c>
+      <c r="M56">
+        <v>4</v>
+      </c>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>54</v>
+      </c>
+      <c r="B57" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57" t="s">
+        <v>106</v>
+      </c>
+      <c r="D57" t="s">
+        <v>102</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>8</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57" s="6">
+        <v>0</v>
+      </c>
+      <c r="I57" s="6">
+        <v>0</v>
+      </c>
+      <c r="J57" s="6">
+        <v>0</v>
+      </c>
+      <c r="K57" s="6">
+        <v>0</v>
+      </c>
+      <c r="L57" s="6">
+        <v>0</v>
+      </c>
+      <c r="M57" s="6">
+        <v>0</v>
+      </c>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -742,70 +4315,1087 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56C38EB-46F7-44FF-886B-4EDDC3D49D4A}">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C4E680-D0CE-4D7C-9FDF-50C6861C2658}">
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.4140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.08203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.73046875" customWidth="1"/>
+    <col min="4" max="4" width="11.86328125" customWidth="1"/>
+    <col min="5" max="5" width="16.86328125" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="10.265625" customWidth="1"/>
+    <col min="8" max="8" width="12.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC76C7A-E6EA-48E7-BB65-92459D33F66C}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="15.1328125" customWidth="1"/>
+    <col min="2" max="2" width="13.86328125" customWidth="1"/>
+    <col min="3" max="3" width="13.3984375" customWidth="1"/>
+    <col min="4" max="4" width="14.46484375" customWidth="1"/>
+    <col min="5" max="5" width="21.86328125" customWidth="1"/>
+    <col min="6" max="6" width="14.46484375" customWidth="1"/>
+    <col min="7" max="7" width="11.86328125" customWidth="1"/>
+    <col min="8" max="8" width="14.46484375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
         <v>35</v>
       </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
       <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D98DB2F1-A4B5-4FB2-BB3D-4BD46DCE595C}">
+  <dimension ref="A1:O20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="12.59765625" customWidth="1"/>
+    <col min="2" max="2" width="13.46484375" customWidth="1"/>
+    <col min="3" max="3" width="21.06640625" customWidth="1"/>
+    <col min="4" max="4" width="15.3984375" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="13.265625" customWidth="1"/>
+    <col min="7" max="7" width="12.73046875" customWidth="1"/>
+    <col min="8" max="8" width="13.1328125" customWidth="1"/>
+    <col min="9" max="9" width="13.265625" customWidth="1"/>
+    <col min="10" max="10" width="12.86328125" customWidth="1"/>
+    <col min="11" max="11" width="13.1328125" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="13.73046875" customWidth="1"/>
+    <col min="14" max="15" width="13.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="249.75" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="84" x14ac:dyDescent="0.3">
+      <c r="C2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K2" t="s">
+        <v>134</v>
+      </c>
+      <c r="L2" t="s">
+        <v>135</v>
+      </c>
+      <c r="M2" t="s">
+        <v>135</v>
+      </c>
+      <c r="N2" t="s">
+        <v>138</v>
+      </c>
+      <c r="O2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M3" t="s">
+        <v>76</v>
+      </c>
+      <c r="N3" t="s">
+        <v>142</v>
+      </c>
+      <c r="O3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6">
+        <v>5</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6">
+        <v>2</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>5</v>
+      </c>
+      <c r="J5" s="6">
+        <v>1</v>
+      </c>
+      <c r="K5" s="6">
+        <v>5</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6" s="6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>3</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
+        <v>5</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7">
+        <v>17</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F7" s="6">
+        <v>2</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
+      <c r="D8" s="6">
+        <v>4</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8" s="6">
+        <v>3</v>
+      </c>
+      <c r="J8" s="6">
+        <v>5</v>
+      </c>
+      <c r="K8" s="6">
+        <v>5</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6">
+        <v>1</v>
+      </c>
+      <c r="O8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6">
+        <v>4</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6">
+        <v>2</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>5</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
+        <v>3</v>
+      </c>
+      <c r="O9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6">
+        <v>1</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0</v>
+      </c>
+      <c r="N10" s="6">
+        <v>0</v>
+      </c>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11" s="6">
+        <v>8</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0</v>
+      </c>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12" s="6">
+        <v>2</v>
+      </c>
+      <c r="J12" s="6">
+        <v>3</v>
+      </c>
+      <c r="K12" s="6">
+        <v>3</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0</v>
+      </c>
+      <c r="N12" s="6">
+        <v>0</v>
+      </c>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" s="6">
+        <v>1</v>
+      </c>
+      <c r="J13" s="6">
+        <v>2</v>
+      </c>
+      <c r="K13" s="6">
+        <v>2</v>
+      </c>
+      <c r="L13" s="6">
+        <v>0</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0</v>
+      </c>
+      <c r="N13" s="6">
+        <v>0</v>
+      </c>
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A14" s="7">
+        <v>11</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="8">
+        <v>7</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15" s="6">
+        <v>5</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6">
+        <v>6</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6">
+        <v>10</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6">
+        <v>20</v>
+      </c>
+      <c r="K15" s="6">
+        <v>0</v>
+      </c>
+      <c r="L15" s="6">
+        <v>0</v>
+      </c>
+      <c r="M15" s="6">
+        <v>0</v>
+      </c>
+      <c r="N15" s="6">
+        <v>0</v>
+      </c>
+      <c r="O15" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16" s="6">
+        <v>11</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
+        <v>2</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0</v>
+      </c>
+      <c r="K16" s="6">
+        <v>0</v>
+      </c>
+      <c r="L16" s="6">
+        <v>0</v>
+      </c>
+      <c r="M16" s="6">
+        <v>0</v>
+      </c>
+      <c r="N16" s="6">
+        <v>0</v>
+      </c>
+      <c r="O16" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17" s="6">
+        <v>8</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6">
+        <v>0</v>
+      </c>
+      <c r="K17" s="6">
+        <v>0</v>
+      </c>
+      <c r="L17" s="6">
+        <v>0</v>
+      </c>
+      <c r="M17" s="6">
+        <v>0</v>
+      </c>
+      <c r="N17" s="6">
+        <v>0</v>
+      </c>
+      <c r="O17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="D18" s="10"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="D19" s="10"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="D20" s="10"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{277A0DED-2E73-4912-9119-2A3294F574AA}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="13.46484375" customWidth="1"/>
+    <col min="2" max="2" width="13.1328125" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="13.265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -818,14 +5408,395 @@
       <c r="D3" t="s">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>0</v>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22DB45EC-9B21-4C00-8FBD-EAF9CF6594BB}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="12.1328125" customWidth="1"/>
+    <col min="3" max="3" width="47.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="40.5" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3A1116-9377-4BC2-96C4-F7BC5084B236}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="10.265625" customWidth="1"/>
+    <col min="2" max="2" width="11.73046875" customWidth="1"/>
+    <col min="3" max="3" width="17.46484375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutoChess\AutoChess\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297B365D-4310-4007-9251-411283C5841E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E007BF-6974-4BF3-B8B6-7D52ED2FA9ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="2" xr2:uid="{D724F234-A033-4A6D-8515-80A5A5013602}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="1" xr2:uid="{D724F234-A033-4A6D-8515-80A5A5013602}"/>
   </bookViews>
   <sheets>
     <sheet name="Role" sheetId="1" r:id="rId1"/>
@@ -1707,8 +1707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56C38EB-46F7-44FF-886B-4EDDC3D49D4A}">
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -4318,7 +4318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C4E680-D0CE-4D7C-9FDF-50C6861C2658}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutoChess\AutoChess\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E007BF-6974-4BF3-B8B6-7D52ED2FA9ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565D58D6-474F-4D3D-A381-4D34DFC1A31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="1" xr2:uid="{D724F234-A033-4A6D-8515-80A5A5013602}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="152">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -719,6 +719,26 @@
 15.攻击后
 16.战斗时
 17.释放技能时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生效时间:
+1.出售时
+2.购买时
+3.升级时
+4.吃食物时
+5.回合开始
+6.回合结束
+7.战斗开始
+8.攻击前
+9.攻击时
+10.攻击后
+11.受伤时
+12.晕厥时
+13.击倒敌方时
+14.我方召唤或位置改变
+15.敌方召唤或位置改变
+16.释放技能时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1778,7 +1798,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="249.75" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" ht="235.9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1792,7 +1812,7 @@
         <v>145</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>146</v>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutoChess\AutoChess\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565D58D6-474F-4D3D-A381-4D34DFC1A31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CED17F-86BF-4993-9D34-C286682FC490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="1" xr2:uid="{D724F234-A033-4A6D-8515-80A5A5013602}"/>
   </bookViews>
@@ -731,14 +731,12 @@
 6.回合结束
 7.战斗开始
 8.攻击前
-9.攻击时
-10.攻击后
-11.受伤时
-12.晕厥时
-13.击倒敌方时
-14.我方召唤或位置改变
-15.敌方召唤或位置改变
-16.释放技能时</t>
+9.攻击后
+10.受伤时
+11.晕厥时
+12.我方召唤或位置改变
+13.敌方召唤或位置改变
+14.释放技能时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1798,7 +1796,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="235.9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" ht="208.15" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>15</v>
       </c>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -5,22 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutoChess\AutoChess\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CocosProj\autochess\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565D58D6-474F-4D3D-A381-4D34DFC1A31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E99B187-9A33-4579-8E2D-BA4220792583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="1" xr2:uid="{D724F234-A033-4A6D-8515-80A5A5013602}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{D724F234-A033-4A6D-8515-80A5A5013602}"/>
   </bookViews>
   <sheets>
     <sheet name="Role" sheetId="1" r:id="rId1"/>
     <sheet name="Skill" sheetId="3" r:id="rId2"/>
-    <sheet name="Food" sheetId="2" r:id="rId3"/>
-    <sheet name="Equip" sheetId="6" r:id="rId4"/>
-    <sheet name="Fetters" sheetId="4" r:id="rId5"/>
-    <sheet name="Hermes" sheetId="5" r:id="rId6"/>
-    <sheet name="FettersEffect" sheetId="7" r:id="rId7"/>
-    <sheet name="HermesEffect" sheetId="8" r:id="rId8"/>
+    <sheet name="Shop_Skill" sheetId="10" r:id="rId3"/>
+    <sheet name="buffer" sheetId="9" r:id="rId4"/>
+    <sheet name="Food" sheetId="2" r:id="rId5"/>
+    <sheet name="Equip" sheetId="6" r:id="rId6"/>
+    <sheet name="Fetters" sheetId="4" r:id="rId7"/>
+    <sheet name="Hermes" sheetId="5" r:id="rId8"/>
+    <sheet name="FettersEffect" sheetId="7" r:id="rId9"/>
+    <sheet name="HermesEffect" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="168">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -739,6 +741,74 @@
 14.我方召唤或位置改变
 15.敌方召唤或位置改变
 16.释放技能时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型：
+1.防御类
+2.增益类
+3.召唤类
+4.攻击类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤虚空虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值(默认1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对敌方后排随机角色造成伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0,1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加生命和攻击(生效一回合)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,1]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1179,26 +1249,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642740F6-283A-42CF-A8C5-3BAFD447C889}">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="14.3984375" customWidth="1"/>
-    <col min="3" max="3" width="12.3984375" customWidth="1"/>
-    <col min="4" max="4" width="11.73046875" customWidth="1"/>
-    <col min="5" max="5" width="12.59765625" customWidth="1"/>
-    <col min="6" max="6" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.3984375" customWidth="1"/>
-    <col min="8" max="8" width="13.86328125" customWidth="1"/>
-    <col min="9" max="9" width="16.265625" customWidth="1"/>
-    <col min="10" max="10" width="15.265625" customWidth="1"/>
-    <col min="11" max="11" width="18.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="8" max="8" width="13.875" customWidth="1"/>
+    <col min="9" max="9" width="16.25" customWidth="1"/>
+    <col min="10" max="10" width="15.25" customWidth="1"/>
+    <col min="11" max="11" width="18.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1233,7 +1303,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1268,7 +1338,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1303,7 +1373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1338,7 +1408,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1373,7 +1443,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1408,7 +1478,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1416,7 +1486,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1424,7 +1494,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1432,7 +1502,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1440,7 +1510,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1448,7 +1518,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1456,7 +1526,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1464,7 +1534,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1472,7 +1542,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1480,7 +1550,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1488,7 +1558,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1496,7 +1566,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1504,7 +1574,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1512,7 +1582,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>17</v>
       </c>
@@ -1520,7 +1590,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>18</v>
       </c>
@@ -1528,7 +1598,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>19</v>
       </c>
@@ -1536,7 +1606,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20</v>
       </c>
@@ -1544,7 +1614,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>21</v>
       </c>
@@ -1552,7 +1622,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>22</v>
       </c>
@@ -1560,7 +1630,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>23</v>
       </c>
@@ -1568,7 +1638,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>24</v>
       </c>
@@ -1576,7 +1646,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>25</v>
       </c>
@@ -1584,7 +1654,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>26</v>
       </c>
@@ -1592,7 +1662,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>27</v>
       </c>
@@ -1600,7 +1670,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>28</v>
       </c>
@@ -1608,7 +1678,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>29</v>
       </c>
@@ -1616,7 +1686,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>30</v>
       </c>
@@ -1624,7 +1694,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>31</v>
       </c>
@@ -1632,7 +1702,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>32</v>
       </c>
@@ -1640,7 +1710,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>33</v>
       </c>
@@ -1648,7 +1718,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>34</v>
       </c>
@@ -1656,7 +1726,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>35</v>
       </c>
@@ -1664,7 +1734,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>36</v>
       </c>
@@ -1672,7 +1742,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>37</v>
       </c>
@@ -1680,7 +1750,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>38</v>
       </c>
@@ -1688,7 +1758,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>39</v>
       </c>
@@ -1696,7 +1766,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>40</v>
       </c>
@@ -1704,7 +1774,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>41</v>
       </c>
@@ -1712,9 +1782,118 @@
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3A1116-9377-4BC2-96C4-F7BC5084B236}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.25" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1725,33 +1904,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56C38EB-46F7-44FF-886B-4EDDC3D49D4A}">
-  <dimension ref="A1:O57"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="16.73046875" customWidth="1"/>
-    <col min="3" max="3" width="15.86328125" customWidth="1"/>
-    <col min="4" max="4" width="14.46484375" customWidth="1"/>
-    <col min="5" max="5" width="25.86328125" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="25.875" customWidth="1"/>
+    <col min="6" max="6" width="14.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="13.265625" customWidth="1"/>
-    <col min="9" max="9" width="13.1328125" customWidth="1"/>
-    <col min="10" max="10" width="12.1328125" customWidth="1"/>
+    <col min="8" max="8" width="13.25" customWidth="1"/>
+    <col min="9" max="9" width="13.125" customWidth="1"/>
+    <col min="10" max="10" width="12.125" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="12.1328125" customWidth="1"/>
+    <col min="12" max="12" width="12.125" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="14" max="14" width="11.3984375" customWidth="1"/>
-    <col min="15" max="15" width="13.86328125" customWidth="1"/>
+    <col min="14" max="14" width="11.375" customWidth="1"/>
+    <col min="15" max="15" width="13.875" customWidth="1"/>
     <col min="16" max="17" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1798,7 +1977,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="235.9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" ht="242.25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1845,7 +2024,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1886,15 +2065,15 @@
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="O3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>121</v>
@@ -1902,11 +2081,11 @@
       <c r="C4" t="s">
         <v>101</v>
       </c>
-      <c r="D4" t="s">
-        <v>100</v>
+      <c r="D4" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1915,94 +2094,94 @@
         <v>1</v>
       </c>
       <c r="H4" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K4" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M4" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>121</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E5">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I5" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K5" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M5" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>121</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H6" s="6">
         <v>1</v>
@@ -2027,42 +2206,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>121</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H7" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="6">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K7" s="6">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M7" s="6">
         <v>0</v>
@@ -2072,54 +2251,56 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>121</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H8" s="6">
         <v>2</v>
       </c>
       <c r="I8" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8">
         <v>3</v>
       </c>
       <c r="K8" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>4</v>
       </c>
       <c r="M8" s="6">
-        <v>0</v>
-      </c>
-      <c r="N8" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>148</v>
+      </c>
       <c r="O8" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>121</v>
@@ -2140,22 +2321,22 @@
         <v>1</v>
       </c>
       <c r="H9" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I9" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K9" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M9" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>148</v>
@@ -2164,146 +2345,144 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>121</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" t="s">
         <v>104</v>
       </c>
       <c r="E10">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I10" s="6">
-        <v>5</v>
-      </c>
-      <c r="J10">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
       </c>
       <c r="K10" s="6">
-        <v>6</v>
-      </c>
-      <c r="L10">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0</v>
       </c>
       <c r="M10" s="6">
-        <v>7</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>148</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="6"/>
       <c r="O10" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>121</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E11">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K11" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M11" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="6"/>
       <c r="O11" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
         <v>121</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E12">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
         <v>6</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
       <c r="H12" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K12" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M12" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N12" s="6"/>
       <c r="O12" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
         <v>121</v>
@@ -2312,31 +2491,31 @@
         <v>101</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="6">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K13" s="6">
         <v>2</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M13" s="6">
         <v>3</v>
@@ -2346,54 +2525,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
         <v>121</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>104</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" s="6">
-        <v>2</v>
-      </c>
-      <c r="J14">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0</v>
       </c>
       <c r="K14" s="6">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0</v>
       </c>
       <c r="M14" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N14" s="6"/>
       <c r="O14" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
         <v>121</v>
@@ -2402,10 +2581,10 @@
         <v>101</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -2414,64 +2593,64 @@
         <v>1</v>
       </c>
       <c r="H15" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I15" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K15" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M15" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N15" s="6"/>
       <c r="O15" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>121</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>104</v>
       </c>
       <c r="E16">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F16">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H16" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" s="6">
         <v>0</v>
       </c>
-      <c r="J16" s="6">
-        <v>0</v>
+      <c r="J16">
+        <v>3</v>
       </c>
       <c r="K16" s="6">
         <v>0</v>
       </c>
-      <c r="L16" s="6">
-        <v>0</v>
+      <c r="L16">
+        <v>4</v>
       </c>
       <c r="M16" s="6">
         <v>0</v>
@@ -2481,189 +2660,189 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>121</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="6">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="J17" s="6">
+        <v>0</v>
       </c>
       <c r="K17" s="6">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="L17" s="6">
+        <v>0</v>
       </c>
       <c r="M17" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N17" s="6"/>
       <c r="O17" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>121</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E18">
         <v>10</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K18" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M18" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" s="6"/>
       <c r="O18" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
         <v>121</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E19">
+        <v>15</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="6">
+        <v>5</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>6</v>
+      </c>
+      <c r="K19" s="6">
+        <v>0</v>
+      </c>
+      <c r="L19">
         <v>7</v>
       </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>6</v>
-      </c>
-      <c r="H19" s="6">
-        <v>2</v>
-      </c>
-      <c r="I19" s="6">
-        <v>2</v>
-      </c>
-      <c r="J19">
-        <v>3</v>
-      </c>
-      <c r="K19" s="6">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>4</v>
-      </c>
       <c r="M19" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N19" s="6"/>
       <c r="O19" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
         <v>121</v>
       </c>
       <c r="C20" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>102</v>
       </c>
       <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
         <v>11</v>
       </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
       <c r="G20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="6">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="J20" s="6">
+        <v>0</v>
       </c>
       <c r="K20" s="6">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="L20" s="6">
+        <v>0</v>
       </c>
       <c r="M20" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N20" s="6"/>
       <c r="O20" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
         <v>121</v>
@@ -2672,31 +2851,31 @@
         <v>101</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E21">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" s="6">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K21" s="6">
         <v>2</v>
       </c>
       <c r="L21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M21" s="6">
         <v>3</v>
@@ -2706,42 +2885,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
         <v>121</v>
       </c>
       <c r="C22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E22">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F22">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="6">
         <v>0</v>
       </c>
-      <c r="J22" s="6">
-        <v>0</v>
+      <c r="J22">
+        <v>2</v>
       </c>
       <c r="K22" s="6">
         <v>0</v>
       </c>
-      <c r="L22" s="6">
-        <v>0</v>
+      <c r="L22">
+        <v>3</v>
       </c>
       <c r="M22" s="6">
         <v>0</v>
@@ -2751,42 +2930,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
         <v>121</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E23">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I23" s="6">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K23" s="6">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M23" s="6">
         <v>0</v>
@@ -2796,42 +2975,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
         <v>121</v>
       </c>
       <c r="C24" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F24">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="H24" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" s="6">
         <v>0</v>
       </c>
-      <c r="J24" s="6">
-        <v>0</v>
+      <c r="J24">
+        <v>3</v>
       </c>
       <c r="K24" s="6">
         <v>0</v>
       </c>
-      <c r="L24" s="6">
-        <v>0</v>
+      <c r="L24">
+        <v>4</v>
       </c>
       <c r="M24" s="6">
         <v>0</v>
@@ -2841,42 +3020,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
         <v>121</v>
       </c>
       <c r="C25" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>104</v>
       </c>
       <c r="E25">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G25">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H25" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" s="6">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K25" s="6">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M25" s="6">
         <v>0</v>
@@ -2886,24 +3065,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
         <v>121</v>
       </c>
       <c r="C26" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E26">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2931,42 +3110,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
         <v>121</v>
       </c>
       <c r="C27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F27">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H27" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" s="6">
         <v>0</v>
       </c>
-      <c r="J27">
-        <v>2</v>
+      <c r="J27" s="6">
+        <v>0</v>
       </c>
       <c r="K27" s="6">
         <v>0</v>
       </c>
-      <c r="L27">
-        <v>3</v>
+      <c r="L27" s="6">
+        <v>0</v>
       </c>
       <c r="M27" s="6">
         <v>0</v>
@@ -2976,9 +3155,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
         <v>121</v>
@@ -2987,16 +3166,16 @@
         <v>107</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E28">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F28">
         <v>3</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H28" s="6">
         <v>2</v>
@@ -3021,42 +3200,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
         <v>121</v>
       </c>
       <c r="C29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E29">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F29">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="6">
         <v>0</v>
       </c>
-      <c r="J29" s="6">
-        <v>0</v>
+      <c r="J29">
+        <v>2</v>
       </c>
       <c r="K29" s="6">
         <v>0</v>
       </c>
-      <c r="L29" s="6">
-        <v>0</v>
+      <c r="L29">
+        <v>3</v>
       </c>
       <c r="M29" s="6">
         <v>0</v>
@@ -3066,24 +3245,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
         <v>121</v>
       </c>
       <c r="C30" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F30">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3111,54 +3290,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
         <v>121</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E31">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I31" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K31" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L31">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M31" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N31" s="6"/>
       <c r="O31" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
         <v>121</v>
@@ -3170,10 +3349,10 @@
         <v>102</v>
       </c>
       <c r="E32">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F32">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3201,1130 +3380,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B33" t="s">
         <v>121</v>
       </c>
       <c r="C33" t="s">
-        <v>101</v>
-      </c>
-      <c r="D33" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" t="s">
         <v>102</v>
       </c>
       <c r="E33">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" s="6">
-        <v>1</v>
-      </c>
-      <c r="J33">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="J33" s="6">
+        <v>0</v>
       </c>
       <c r="K33" s="6">
-        <v>2</v>
-      </c>
-      <c r="L33">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="L33" s="6">
+        <v>0</v>
       </c>
       <c r="M33" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N33" s="6"/>
       <c r="O33" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A34">
-        <v>31</v>
-      </c>
-      <c r="B34" t="s">
-        <v>121</v>
-      </c>
-      <c r="C34" t="s">
-        <v>106</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E34">
-        <v>9</v>
-      </c>
-      <c r="F34">
-        <v>5</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34" s="6">
-        <v>1</v>
-      </c>
-      <c r="I34" s="6">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>2</v>
-      </c>
-      <c r="K34" s="6">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>3</v>
-      </c>
-      <c r="M34" s="6">
-        <v>0</v>
-      </c>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A35">
-        <v>32</v>
-      </c>
-      <c r="B35" t="s">
-        <v>121</v>
-      </c>
-      <c r="C35" t="s">
-        <v>107</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E35">
-        <v>10</v>
-      </c>
-      <c r="F35">
-        <v>3</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="H35" s="6">
-        <v>2</v>
-      </c>
-      <c r="I35" s="6">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>3</v>
-      </c>
-      <c r="K35" s="6">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>4</v>
-      </c>
-      <c r="M35" s="6">
-        <v>0</v>
-      </c>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A36">
-        <v>33</v>
-      </c>
-      <c r="B36" t="s">
-        <v>121</v>
-      </c>
-      <c r="C36" t="s">
-        <v>101</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E36">
-        <v>11</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36" s="6">
-        <v>2</v>
-      </c>
-      <c r="I36" s="6">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>3</v>
-      </c>
-      <c r="K36" s="6">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>4</v>
-      </c>
-      <c r="M36" s="6">
-        <v>0</v>
-      </c>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A37">
-        <v>34</v>
-      </c>
-      <c r="B37" t="s">
-        <v>121</v>
-      </c>
-      <c r="C37" t="s">
-        <v>106</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E37">
-        <v>6</v>
-      </c>
-      <c r="F37">
-        <v>5</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37" s="6">
-        <v>0</v>
-      </c>
-      <c r="I37" s="6">
-        <v>0</v>
-      </c>
-      <c r="J37" s="6">
-        <v>0</v>
-      </c>
-      <c r="K37" s="6">
-        <v>0</v>
-      </c>
-      <c r="L37" s="6">
-        <v>0</v>
-      </c>
-      <c r="M37" s="6">
-        <v>0</v>
-      </c>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A38">
-        <v>35</v>
-      </c>
-      <c r="B38" t="s">
-        <v>121</v>
-      </c>
-      <c r="C38" t="s">
-        <v>101</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E38">
-        <v>6</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38" s="6">
-        <v>1</v>
-      </c>
-      <c r="I38" s="6">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>2</v>
-      </c>
-      <c r="K38" s="6">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>3</v>
-      </c>
-      <c r="M38" s="6">
-        <v>0</v>
-      </c>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A39">
-        <v>36</v>
-      </c>
-      <c r="B39" t="s">
-        <v>121</v>
-      </c>
-      <c r="C39" t="s">
-        <v>106</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E39">
-        <v>5</v>
-      </c>
-      <c r="F39">
-        <v>5</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39" s="6">
-        <v>0</v>
-      </c>
-      <c r="I39" s="6">
-        <v>0</v>
-      </c>
-      <c r="J39" s="6">
-        <v>0</v>
-      </c>
-      <c r="K39" s="6">
-        <v>0</v>
-      </c>
-      <c r="L39" s="6">
-        <v>0</v>
-      </c>
-      <c r="M39" s="6">
-        <v>0</v>
-      </c>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A40">
-        <v>37</v>
-      </c>
-      <c r="B40" t="s">
-        <v>121</v>
-      </c>
-      <c r="C40" t="s">
-        <v>107</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E40">
-        <v>14</v>
-      </c>
-      <c r="F40">
-        <v>3</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40" s="6">
-        <v>1</v>
-      </c>
-      <c r="I40" s="6">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>2</v>
-      </c>
-      <c r="K40" s="6">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>3</v>
-      </c>
-      <c r="M40" s="6">
-        <v>0</v>
-      </c>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A41">
-        <v>38</v>
-      </c>
-      <c r="B41" t="s">
-        <v>121</v>
-      </c>
-      <c r="C41" t="s">
-        <v>109</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E41">
-        <v>11</v>
-      </c>
-      <c r="F41">
-        <v>9</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="H41" s="6">
-        <v>0</v>
-      </c>
-      <c r="I41" s="6">
-        <v>0</v>
-      </c>
-      <c r="J41" s="6">
-        <v>0</v>
-      </c>
-      <c r="K41" s="6">
-        <v>0</v>
-      </c>
-      <c r="L41" s="6">
-        <v>0</v>
-      </c>
-      <c r="M41" s="6">
-        <v>0</v>
-      </c>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A42">
-        <v>39</v>
-      </c>
-      <c r="B42" t="s">
-        <v>121</v>
-      </c>
-      <c r="C42" t="s">
-        <v>107</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E42">
-        <v>7</v>
-      </c>
-      <c r="F42">
-        <v>9</v>
-      </c>
-      <c r="G42">
-        <v>2</v>
-      </c>
-      <c r="H42" s="6">
-        <v>0</v>
-      </c>
-      <c r="I42" s="6">
-        <v>0</v>
-      </c>
-      <c r="J42" s="6">
-        <v>0</v>
-      </c>
-      <c r="K42" s="6">
-        <v>0</v>
-      </c>
-      <c r="L42" s="6">
-        <v>0</v>
-      </c>
-      <c r="M42" s="6">
-        <v>0</v>
-      </c>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A43">
-        <v>40</v>
-      </c>
-      <c r="B43" t="s">
-        <v>121</v>
-      </c>
-      <c r="C43" t="s">
-        <v>107</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E43">
-        <v>12</v>
-      </c>
-      <c r="F43">
-        <v>3</v>
-      </c>
-      <c r="G43">
-        <v>6</v>
-      </c>
-      <c r="H43" s="6">
-        <v>2</v>
-      </c>
-      <c r="I43" s="6">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>3</v>
-      </c>
-      <c r="K43" s="6">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>4</v>
-      </c>
-      <c r="M43" s="6">
-        <v>0</v>
-      </c>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A44">
-        <v>41</v>
-      </c>
-      <c r="B44" t="s">
-        <v>121</v>
-      </c>
-      <c r="C44" t="s">
-        <v>101</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-      <c r="H44" s="6">
-        <v>1</v>
-      </c>
-      <c r="I44" s="6">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>2</v>
-      </c>
-      <c r="K44" s="6">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>3</v>
-      </c>
-      <c r="M44" s="6">
-        <v>0</v>
-      </c>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A45">
-        <v>42</v>
-      </c>
-      <c r="B45" t="s">
-        <v>121</v>
-      </c>
-      <c r="C45" t="s">
-        <v>107</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E45">
-        <v>9</v>
-      </c>
-      <c r="F45">
-        <v>3</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-      <c r="H45" s="6">
-        <v>1</v>
-      </c>
-      <c r="I45" s="6">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>2</v>
-      </c>
-      <c r="K45" s="6">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>3</v>
-      </c>
-      <c r="M45" s="6">
-        <v>0</v>
-      </c>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A46">
-        <v>43</v>
-      </c>
-      <c r="B46" t="s">
-        <v>121</v>
-      </c>
-      <c r="C46" t="s">
-        <v>101</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E46">
-        <v>6</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-      <c r="H46" s="6">
-        <v>2</v>
-      </c>
-      <c r="I46" s="6">
-        <v>2</v>
-      </c>
-      <c r="J46">
-        <v>3</v>
-      </c>
-      <c r="K46" s="6">
-        <v>3</v>
-      </c>
-      <c r="L46">
-        <v>4</v>
-      </c>
-      <c r="M46" s="6">
-        <v>4</v>
-      </c>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A47">
-        <v>44</v>
-      </c>
-      <c r="B47" t="s">
-        <v>121</v>
-      </c>
-      <c r="C47" t="s">
-        <v>101</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47">
-        <v>2</v>
-      </c>
-      <c r="H47" s="6">
-        <v>1</v>
-      </c>
-      <c r="I47" s="6">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>2</v>
-      </c>
-      <c r="K47" s="6">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>3</v>
-      </c>
-      <c r="M47" s="6">
-        <v>0</v>
-      </c>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A48">
-        <v>45</v>
-      </c>
-      <c r="B48" t="s">
-        <v>121</v>
-      </c>
-      <c r="C48" t="s">
-        <v>107</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E48">
-        <v>8</v>
-      </c>
-      <c r="F48">
-        <v>3</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48" s="6">
-        <v>0</v>
-      </c>
-      <c r="I48" s="6">
-        <v>0</v>
-      </c>
-      <c r="J48" s="6">
-        <v>0</v>
-      </c>
-      <c r="K48" s="6">
-        <v>0</v>
-      </c>
-      <c r="L48" s="6">
-        <v>0</v>
-      </c>
-      <c r="M48" s="6">
-        <v>0</v>
-      </c>
-      <c r="N48" s="6"/>
-      <c r="O48" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A49">
-        <v>46</v>
-      </c>
-      <c r="B49" t="s">
-        <v>121</v>
-      </c>
-      <c r="C49" t="s">
-        <v>101</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E49">
-        <v>5</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-      <c r="H49" s="6">
-        <v>1</v>
-      </c>
-      <c r="I49" s="6">
-        <v>1</v>
-      </c>
-      <c r="J49">
-        <v>2</v>
-      </c>
-      <c r="K49" s="6">
-        <v>2</v>
-      </c>
-      <c r="L49">
-        <v>3</v>
-      </c>
-      <c r="M49" s="6">
-        <v>3</v>
-      </c>
-      <c r="N49" s="6"/>
-      <c r="O49" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A50">
-        <v>47</v>
-      </c>
-      <c r="B50" t="s">
-        <v>121</v>
-      </c>
-      <c r="C50" t="s">
-        <v>106</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E50">
-        <v>6</v>
-      </c>
-      <c r="F50">
-        <v>5</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50" s="6">
-        <v>2</v>
-      </c>
-      <c r="I50" s="6">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>3</v>
-      </c>
-      <c r="K50" s="6">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>4</v>
-      </c>
-      <c r="M50" s="6">
-        <v>0</v>
-      </c>
-      <c r="N50" s="6"/>
-      <c r="O50" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A51">
-        <v>48</v>
-      </c>
-      <c r="B51" t="s">
-        <v>121</v>
-      </c>
-      <c r="C51" t="s">
-        <v>101</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E51">
-        <v>6</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="H51" s="6">
-        <v>0</v>
-      </c>
-      <c r="I51" s="6">
-        <v>1</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51" s="6">
-        <v>2</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51" s="6">
-        <v>3</v>
-      </c>
-      <c r="N51" s="6"/>
-      <c r="O51" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A52">
-        <v>49</v>
-      </c>
-      <c r="B52" t="s">
-        <v>121</v>
-      </c>
-      <c r="C52" t="s">
-        <v>108</v>
-      </c>
-      <c r="D52" t="s">
-        <v>104</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="F52">
-        <v>4</v>
-      </c>
-      <c r="G52">
-        <v>2</v>
-      </c>
-      <c r="H52" s="6">
-        <v>0</v>
-      </c>
-      <c r="I52" s="6">
-        <v>0</v>
-      </c>
-      <c r="J52" s="6">
-        <v>0</v>
-      </c>
-      <c r="K52" s="6">
-        <v>0</v>
-      </c>
-      <c r="L52" s="6">
-        <v>0</v>
-      </c>
-      <c r="M52" s="6">
-        <v>0</v>
-      </c>
-      <c r="N52" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="O52" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A53">
-        <v>50</v>
-      </c>
-      <c r="B53" t="s">
-        <v>121</v>
-      </c>
-      <c r="C53" t="s">
-        <v>101</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E53">
-        <v>13</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-      <c r="H53" s="6">
-        <v>2</v>
-      </c>
-      <c r="I53" s="6">
-        <v>2</v>
-      </c>
-      <c r="J53">
-        <v>3</v>
-      </c>
-      <c r="K53" s="6">
-        <v>3</v>
-      </c>
-      <c r="L53">
-        <v>4</v>
-      </c>
-      <c r="M53" s="6">
-        <v>4</v>
-      </c>
-      <c r="N53" s="6"/>
-      <c r="O53" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A54">
-        <v>51</v>
-      </c>
-      <c r="B54" t="s">
-        <v>121</v>
-      </c>
-      <c r="C54" t="s">
-        <v>109</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E54">
-        <v>16</v>
-      </c>
-      <c r="F54">
-        <v>12</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-      <c r="H54" s="6">
-        <v>0</v>
-      </c>
-      <c r="I54" s="6">
-        <v>0</v>
-      </c>
-      <c r="J54" s="6">
-        <v>0</v>
-      </c>
-      <c r="K54" s="6">
-        <v>0</v>
-      </c>
-      <c r="L54" s="6">
-        <v>0</v>
-      </c>
-      <c r="M54" s="6">
-        <v>0</v>
-      </c>
-      <c r="N54" s="6"/>
-      <c r="O54" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A55">
-        <v>52</v>
-      </c>
-      <c r="B55" t="s">
-        <v>121</v>
-      </c>
-      <c r="C55" t="s">
-        <v>109</v>
-      </c>
-      <c r="D55" t="s">
-        <v>102</v>
-      </c>
-      <c r="E55">
-        <v>7</v>
-      </c>
-      <c r="F55">
-        <v>6</v>
-      </c>
-      <c r="G55">
-        <v>2</v>
-      </c>
-      <c r="H55" s="6">
-        <v>0</v>
-      </c>
-      <c r="I55" s="6">
-        <v>0</v>
-      </c>
-      <c r="J55" s="6">
-        <v>0</v>
-      </c>
-      <c r="K55" s="6">
-        <v>0</v>
-      </c>
-      <c r="L55" s="6">
-        <v>0</v>
-      </c>
-      <c r="M55" s="6">
-        <v>0</v>
-      </c>
-      <c r="N55" s="6"/>
-      <c r="O55" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A56">
-        <v>53</v>
-      </c>
-      <c r="B56" t="s">
-        <v>121</v>
-      </c>
-      <c r="C56" t="s">
-        <v>101</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E56">
-        <v>6</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56">
-        <v>6</v>
-      </c>
-      <c r="H56" s="6">
-        <v>2</v>
-      </c>
-      <c r="I56">
-        <v>2</v>
-      </c>
-      <c r="J56">
-        <v>3</v>
-      </c>
-      <c r="K56">
-        <v>3</v>
-      </c>
-      <c r="L56">
-        <v>4</v>
-      </c>
-      <c r="M56">
-        <v>4</v>
-      </c>
-      <c r="N56" s="6"/>
-      <c r="O56" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A57">
-        <v>54</v>
-      </c>
-      <c r="B57" t="s">
-        <v>121</v>
-      </c>
-      <c r="C57" t="s">
-        <v>106</v>
-      </c>
-      <c r="D57" t="s">
-        <v>102</v>
-      </c>
-      <c r="E57">
-        <v>2</v>
-      </c>
-      <c r="F57">
-        <v>8</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57" s="6">
-        <v>0</v>
-      </c>
-      <c r="I57" s="6">
-        <v>0</v>
-      </c>
-      <c r="J57" s="6">
-        <v>0</v>
-      </c>
-      <c r="K57" s="6">
-        <v>0</v>
-      </c>
-      <c r="L57" s="6">
-        <v>0</v>
-      </c>
-      <c r="M57" s="6">
-        <v>0</v>
-      </c>
-      <c r="N57" s="6"/>
-      <c r="O57" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4335,6 +3432,1498 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{785124C3-8FB4-4BAB-93C7-3345B3097809}">
+  <dimension ref="A1:O27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="13.625" customWidth="1"/>
+    <col min="6" max="6" width="16.875" customWidth="1"/>
+    <col min="7" max="7" width="13.875" customWidth="1"/>
+    <col min="8" max="8" width="14.25" customWidth="1"/>
+    <col min="9" max="9" width="14.875" customWidth="1"/>
+    <col min="10" max="10" width="13.375" customWidth="1"/>
+    <col min="11" max="11" width="13.625" customWidth="1"/>
+    <col min="12" max="12" width="13.125" customWidth="1"/>
+    <col min="13" max="13" width="13.25" customWidth="1"/>
+    <col min="14" max="14" width="13.875" customWidth="1"/>
+    <col min="15" max="15" width="17.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M1" t="s">
+        <v>118</v>
+      </c>
+      <c r="N1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="384.75" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N2" t="s">
+        <v>119</v>
+      </c>
+      <c r="O2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>161</v>
+      </c>
+      <c r="O3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1</v>
+      </c>
+      <c r="I4" s="6">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4" s="6">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4" s="6">
+        <v>3</v>
+      </c>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6" s="6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6" s="6">
+        <v>3</v>
+      </c>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
+        <v>3</v>
+      </c>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6">
+        <v>2</v>
+      </c>
+      <c r="I8" s="6">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8" s="6">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8" s="6">
+        <v>4</v>
+      </c>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9" s="6">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9" s="6">
+        <v>3</v>
+      </c>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10" s="6">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10" s="6">
+        <v>3</v>
+      </c>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11" s="6">
+        <v>1</v>
+      </c>
+      <c r="I11" s="6">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11" s="6">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="M11" s="6">
+        <v>3</v>
+      </c>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0</v>
+      </c>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>1</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13" s="6">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0</v>
+      </c>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>8</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6">
+        <v>0</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0</v>
+      </c>
+      <c r="M14" s="6">
+        <v>0</v>
+      </c>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>8</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6">
+        <v>0</v>
+      </c>
+      <c r="K15" s="6">
+        <v>0</v>
+      </c>
+      <c r="L15" s="6">
+        <v>0</v>
+      </c>
+      <c r="M15" s="6">
+        <v>0</v>
+      </c>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0</v>
+      </c>
+      <c r="K16" s="6">
+        <v>0</v>
+      </c>
+      <c r="L16" s="6">
+        <v>0</v>
+      </c>
+      <c r="M16" s="6">
+        <v>0</v>
+      </c>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6">
+        <v>1</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17" s="6">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="M17" s="6">
+        <v>0</v>
+      </c>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0</v>
+      </c>
+      <c r="K18" s="6">
+        <v>0</v>
+      </c>
+      <c r="L18" s="6">
+        <v>0</v>
+      </c>
+      <c r="M18" s="6">
+        <v>0</v>
+      </c>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="6">
+        <v>1</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19" s="6">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+      <c r="M19" s="6">
+        <v>0</v>
+      </c>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" s="6">
+        <v>2</v>
+      </c>
+      <c r="I20" s="6">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+      <c r="K20" s="6">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>4</v>
+      </c>
+      <c r="M20" s="6">
+        <v>4</v>
+      </c>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21" s="6">
+        <v>1</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21" s="6">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>3</v>
+      </c>
+      <c r="M21" s="6">
+        <v>0</v>
+      </c>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" s="6">
+        <v>1</v>
+      </c>
+      <c r="I22" s="6">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22" s="6">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>3</v>
+      </c>
+      <c r="M22" s="6">
+        <v>3</v>
+      </c>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" s="6">
+        <v>2</v>
+      </c>
+      <c r="I23" s="6">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23" s="6">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>4</v>
+      </c>
+      <c r="M23" s="6">
+        <v>0</v>
+      </c>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24">
+        <v>6</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0</v>
+      </c>
+      <c r="I24" s="6">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" s="6">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24" s="6">
+        <v>3</v>
+      </c>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0</v>
+      </c>
+      <c r="J25" s="6">
+        <v>0</v>
+      </c>
+      <c r="K25" s="6">
+        <v>0</v>
+      </c>
+      <c r="L25" s="6">
+        <v>0</v>
+      </c>
+      <c r="M25" s="6">
+        <v>0</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="O25" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>6</v>
+      </c>
+      <c r="H26" s="6">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>4</v>
+      </c>
+      <c r="M26">
+        <v>4</v>
+      </c>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>8</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" s="6">
+        <v>0</v>
+      </c>
+      <c r="I27" s="6">
+        <v>0</v>
+      </c>
+      <c r="J27" s="6">
+        <v>0</v>
+      </c>
+      <c r="K27" s="6">
+        <v>0</v>
+      </c>
+      <c r="L27" s="6">
+        <v>0</v>
+      </c>
+      <c r="M27" s="6">
+        <v>0</v>
+      </c>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F10764-2E72-4255-A918-2C1BA9EB5CC6}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="29.625" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="17.75" customWidth="1"/>
+    <col min="9" max="9" width="15.125" customWidth="1"/>
+    <col min="10" max="10" width="14.125" customWidth="1"/>
+    <col min="11" max="11" width="14.25" customWidth="1"/>
+    <col min="12" max="12" width="11.625" customWidth="1"/>
+    <col min="13" max="13" width="13.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="291.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C4E680-D0CE-4D7C-9FDF-50C6861C2658}">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -4342,17 +4931,17 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.73046875" customWidth="1"/>
-    <col min="4" max="4" width="11.86328125" customWidth="1"/>
-    <col min="5" max="5" width="16.86328125" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="16.875" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="10.265625" customWidth="1"/>
-    <col min="8" max="8" width="12.3984375" customWidth="1"/>
+    <col min="7" max="7" width="10.25" customWidth="1"/>
+    <col min="8" max="8" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -4378,7 +4967,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -4404,7 +4993,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -4436,7 +5025,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC76C7A-E6EA-48E7-BB65-92459D33F66C}">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -4444,19 +5033,19 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.1328125" customWidth="1"/>
-    <col min="2" max="2" width="13.86328125" customWidth="1"/>
-    <col min="3" max="3" width="13.3984375" customWidth="1"/>
-    <col min="4" max="4" width="14.46484375" customWidth="1"/>
-    <col min="5" max="5" width="21.86328125" customWidth="1"/>
-    <col min="6" max="6" width="14.46484375" customWidth="1"/>
-    <col min="7" max="7" width="11.86328125" customWidth="1"/>
-    <col min="8" max="8" width="14.46484375" customWidth="1"/>
+    <col min="1" max="1" width="15.125" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="21.875" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="11.875" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -4482,7 +5071,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="55.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -4508,7 +5097,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -4540,33 +5129,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D98DB2F1-A4B5-4FB2-BB3D-4BD46DCE595C}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.59765625" customWidth="1"/>
-    <col min="2" max="2" width="13.46484375" customWidth="1"/>
-    <col min="3" max="3" width="21.06640625" customWidth="1"/>
-    <col min="4" max="4" width="15.3984375" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="21.125" customWidth="1"/>
+    <col min="4" max="4" width="15.375" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="13.265625" customWidth="1"/>
-    <col min="7" max="7" width="12.73046875" customWidth="1"/>
-    <col min="8" max="8" width="13.1328125" customWidth="1"/>
-    <col min="9" max="9" width="13.265625" customWidth="1"/>
-    <col min="10" max="10" width="12.86328125" customWidth="1"/>
-    <col min="11" max="11" width="13.1328125" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="8" max="8" width="13.125" customWidth="1"/>
+    <col min="9" max="9" width="13.25" customWidth="1"/>
+    <col min="10" max="10" width="12.875" customWidth="1"/>
+    <col min="11" max="11" width="13.125" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="13.73046875" customWidth="1"/>
-    <col min="14" max="15" width="13.59765625" customWidth="1"/>
+    <col min="13" max="13" width="13.75" customWidth="1"/>
+    <col min="14" max="15" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -4613,7 +5202,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="249.75" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" ht="256.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -4660,7 +5249,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -4707,7 +5296,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4752,7 +5341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -4799,7 +5388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -4846,7 +5435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -4893,7 +5482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -4940,7 +5529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -4985,7 +5574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -5032,7 +5621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -5077,7 +5666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -5124,7 +5713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -5171,7 +5760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>11</v>
       </c>
@@ -5194,7 +5783,7 @@
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -5239,7 +5828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
@@ -5284,7 +5873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
@@ -5329,7 +5918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D18" s="10"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -5342,7 +5931,7 @@
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D19" s="10"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -5354,7 +5943,7 @@
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D20" s="10"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -5371,7 +5960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{277A0DED-2E73-4912-9119-2A3294F574AA}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -5379,15 +5968,15 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.46484375" customWidth="1"/>
-    <col min="2" max="2" width="13.1328125" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="13.265625" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -5401,7 +5990,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -5415,7 +6004,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -5429,7 +6018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -5443,7 +6032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -5457,7 +6046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -5471,7 +6060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -5485,7 +6074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -5499,7 +6088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -5519,7 +6108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22DB45EC-9B21-4C00-8FBD-EAF9CF6594BB}">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -5527,14 +6116,14 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="12.1328125" customWidth="1"/>
-    <col min="3" max="3" width="47.1328125" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="47.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>77</v>
       </c>
@@ -5545,7 +6134,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5556,7 +6145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5567,7 +6156,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5578,7 +6167,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5589,7 +6178,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5600,7 +6189,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5611,7 +6200,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="40.5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" ht="39.75" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5622,7 +6211,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -5633,7 +6222,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5644,7 +6233,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -5655,7 +6244,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -5666,7 +6255,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -5677,7 +6266,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -5688,7 +6277,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -5699,7 +6288,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -5708,115 +6297,6 @@
       </c>
       <c r="C16" s="2" t="s">
         <v>92</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3A1116-9377-4BC2-96C4-F7BC5084B236}">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="10.265625" customWidth="1"/>
-    <col min="2" max="2" width="11.73046875" customWidth="1"/>
-    <col min="3" max="3" width="17.46484375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CocosProj\autochess\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E99B187-9A33-4579-8E2D-BA4220792583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC3E7F9-618B-4289-BFCC-FFDBC7305404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{D724F234-A033-4A6D-8515-80A5A5013602}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{D724F234-A033-4A6D-8515-80A5A5013602}"/>
   </bookViews>
   <sheets>
     <sheet name="Role" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="163">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -752,63 +752,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal</t>
+    <t>数值(默认1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力增加</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>类型：
-1.防御类
-2.增益类
-3.召唤类
-4.攻击类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤虚空虫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数值(默认1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击力增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对敌方后排随机角色造成伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0,1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加生命和攻击(生效一回合)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1,1]</t>
+1.InevitableKill
+2.ShareDamage
+3.SubstituteDamageFront
+4.SubstituteDamageRandom
+5.ReductionDamage
+6.intensifierAtk
+7.Shields</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分摊伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Round</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续时间(默认1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1906,7 +1889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56C38EB-46F7-44FF-886B-4EDDC3D49D4A}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
@@ -2065,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="O3" t="s">
         <v>0</v>
@@ -3435,7 +3418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{785124C3-8FB4-4BAB-93C7-3345B3097809}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
@@ -3503,7 +3486,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="384.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="270.75" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -3591,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="O3" t="s">
         <v>0</v>
@@ -4687,30 +4670,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F10764-2E72-4255-A918-2C1BA9EB5CC6}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="29.625" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="13.25" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="17.75" customWidth="1"/>
-    <col min="9" max="9" width="15.125" customWidth="1"/>
-    <col min="10" max="10" width="14.125" customWidth="1"/>
-    <col min="11" max="11" width="14.25" customWidth="1"/>
-    <col min="12" max="12" width="11.625" customWidth="1"/>
-    <col min="13" max="13" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="27.75" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="17.75" customWidth="1"/>
+    <col min="6" max="6" width="15.125" customWidth="1"/>
+    <col min="7" max="7" width="14.125" customWidth="1"/>
+    <col min="8" max="8" width="14.25" customWidth="1"/>
+    <col min="9" max="9" width="11.625" customWidth="1"/>
+    <col min="10" max="10" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -4721,42 +4701,30 @@
         <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="291.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="291.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+      <c r="E2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -4764,22 +4732,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F3" t="s">
-        <v>142</v>
-      </c>
-      <c r="G3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4787,22 +4749,16 @@
         <v>152</v>
       </c>
       <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>154</v>
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -4810,22 +4766,16 @@
         <v>153</v>
       </c>
       <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>155</v>
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -4833,88 +4783,30 @@
         <v>157</v>
       </c>
       <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>166</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="E9" t="s">
-        <v>167</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>158</v>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CocosProj\autochess\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutoChess\AutoChess\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC3E7F9-618B-4289-BFCC-FFDBC7305404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66ECA098-2059-4FF3-84D6-B5128EDE369C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{D724F234-A033-4A6D-8515-80A5A5013602}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="3" xr2:uid="{D724F234-A033-4A6D-8515-80A5A5013602}"/>
   </bookViews>
   <sheets>
     <sheet name="Role" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="165">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -792,6 +792,25 @@
   </si>
   <si>
     <t>持续时间(默认1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果:
+1.加属性
+2.回复生命
+3.造成远程伤害
+4.召唤对象
+5.交换属性
+6.获得护盾
+7.改变站位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果:
+1.加属性
+2.获得金币
+3.商店更新
+4.获得装备</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1236,22 +1255,22 @@
       <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="3" width="12.375" customWidth="1"/>
-    <col min="4" max="4" width="11.75" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
-    <col min="8" max="8" width="13.875" customWidth="1"/>
-    <col min="9" max="9" width="16.25" customWidth="1"/>
-    <col min="10" max="10" width="15.25" customWidth="1"/>
-    <col min="11" max="11" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" customWidth="1"/>
+    <col min="3" max="3" width="12.3984375" customWidth="1"/>
+    <col min="4" max="4" width="11.73046875" customWidth="1"/>
+    <col min="5" max="5" width="12.59765625" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.3984375" customWidth="1"/>
+    <col min="8" max="8" width="13.86328125" customWidth="1"/>
+    <col min="9" max="9" width="16.265625" customWidth="1"/>
+    <col min="10" max="10" width="15.265625" customWidth="1"/>
+    <col min="11" max="11" width="18.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1286,7 +1305,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1321,7 +1340,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1356,7 +1375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1391,7 +1410,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1426,7 +1445,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1461,7 +1480,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1469,7 +1488,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1477,7 +1496,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1485,7 +1504,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1493,7 +1512,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1501,7 +1520,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1509,7 +1528,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1517,7 +1536,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1525,7 +1544,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1533,7 +1552,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1541,7 +1560,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1549,7 +1568,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1557,7 +1576,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1565,7 +1584,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>17</v>
       </c>
@@ -1573,7 +1592,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>18</v>
       </c>
@@ -1581,7 +1600,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>19</v>
       </c>
@@ -1589,7 +1608,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>20</v>
       </c>
@@ -1597,7 +1616,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>21</v>
       </c>
@@ -1605,7 +1624,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>22</v>
       </c>
@@ -1613,7 +1632,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>23</v>
       </c>
@@ -1621,7 +1640,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>24</v>
       </c>
@@ -1629,7 +1648,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>25</v>
       </c>
@@ -1637,7 +1656,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>26</v>
       </c>
@@ -1645,7 +1664,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>27</v>
       </c>
@@ -1653,7 +1672,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>28</v>
       </c>
@@ -1661,7 +1680,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>29</v>
       </c>
@@ -1669,7 +1688,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>30</v>
       </c>
@@ -1677,7 +1696,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>31</v>
       </c>
@@ -1685,7 +1704,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>32</v>
       </c>
@@ -1693,7 +1712,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>33</v>
       </c>
@@ -1701,7 +1720,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>34</v>
       </c>
@@ -1709,7 +1728,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>35</v>
       </c>
@@ -1717,7 +1736,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>36</v>
       </c>
@@ -1725,7 +1744,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>37</v>
       </c>
@@ -1733,7 +1752,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>38</v>
       </c>
@@ -1741,7 +1760,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>39</v>
       </c>
@@ -1749,7 +1768,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>40</v>
       </c>
@@ -1757,7 +1776,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>41</v>
       </c>
@@ -1765,7 +1784,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>42</v>
       </c>
@@ -1784,14 +1803,14 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.25" customWidth="1"/>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="10.265625" customWidth="1"/>
+    <col min="2" max="2" width="11.73046875" customWidth="1"/>
+    <col min="3" max="3" width="17.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>77</v>
       </c>
@@ -1802,7 +1821,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1813,7 +1832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1824,7 +1843,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1835,7 +1854,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1846,7 +1865,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1857,7 +1876,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1868,7 +1887,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1890,30 +1909,30 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="15.875" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
-    <col min="5" max="5" width="25.875" customWidth="1"/>
-    <col min="6" max="6" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.73046875" customWidth="1"/>
+    <col min="3" max="3" width="15.86328125" customWidth="1"/>
+    <col min="4" max="4" width="16.1328125" customWidth="1"/>
+    <col min="5" max="5" width="25.86328125" customWidth="1"/>
+    <col min="6" max="6" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="13.25" customWidth="1"/>
-    <col min="9" max="9" width="13.125" customWidth="1"/>
-    <col min="10" max="10" width="12.125" customWidth="1"/>
+    <col min="8" max="8" width="13.265625" customWidth="1"/>
+    <col min="9" max="9" width="13.1328125" customWidth="1"/>
+    <col min="10" max="10" width="12.1328125" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="12.125" customWidth="1"/>
+    <col min="12" max="12" width="12.1328125" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="14" max="14" width="11.375" customWidth="1"/>
-    <col min="15" max="15" width="13.875" customWidth="1"/>
+    <col min="14" max="14" width="11.3984375" customWidth="1"/>
+    <col min="15" max="15" width="13.86328125" customWidth="1"/>
     <col min="16" max="17" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1960,7 +1979,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="242.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="235.9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1977,7 +1996,7 @@
         <v>151</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>112</v>
@@ -2007,7 +2026,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2054,7 +2073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2099,7 +2118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2144,7 +2163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2189,7 +2208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2234,7 +2253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2281,7 +2300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2328,7 +2347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>13</v>
       </c>
@@ -2373,7 +2392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>15</v>
       </c>
@@ -2418,7 +2437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>16</v>
       </c>
@@ -2463,7 +2482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>17</v>
       </c>
@@ -2508,7 +2527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>19</v>
       </c>
@@ -2553,7 +2572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>20</v>
       </c>
@@ -2598,7 +2617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>22</v>
       </c>
@@ -2643,7 +2662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>23</v>
       </c>
@@ -2688,7 +2707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>25</v>
       </c>
@@ -2733,7 +2752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>28</v>
       </c>
@@ -2778,7 +2797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>29</v>
       </c>
@@ -2823,7 +2842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>30</v>
       </c>
@@ -2868,7 +2887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>31</v>
       </c>
@@ -2913,7 +2932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>32</v>
       </c>
@@ -2958,7 +2977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>33</v>
       </c>
@@ -3003,7 +3022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>37</v>
       </c>
@@ -3048,7 +3067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>38</v>
       </c>
@@ -3093,7 +3112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>39</v>
       </c>
@@ -3138,7 +3157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>40</v>
       </c>
@@ -3183,7 +3202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>42</v>
       </c>
@@ -3228,7 +3247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>45</v>
       </c>
@@ -3273,7 +3292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>50</v>
       </c>
@@ -3318,7 +3337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>51</v>
       </c>
@@ -3363,7 +3382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>52</v>
       </c>
@@ -3418,28 +3437,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{785124C3-8FB4-4BAB-93C7-3345B3097809}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="14.375" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="13.625" customWidth="1"/>
-    <col min="6" max="6" width="16.875" customWidth="1"/>
-    <col min="7" max="7" width="13.875" customWidth="1"/>
-    <col min="8" max="8" width="14.25" customWidth="1"/>
-    <col min="9" max="9" width="14.875" customWidth="1"/>
-    <col min="10" max="10" width="13.375" customWidth="1"/>
-    <col min="11" max="11" width="13.625" customWidth="1"/>
-    <col min="12" max="12" width="13.125" customWidth="1"/>
-    <col min="13" max="13" width="13.25" customWidth="1"/>
-    <col min="14" max="14" width="13.875" customWidth="1"/>
-    <col min="15" max="15" width="17.25" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" customWidth="1"/>
+    <col min="4" max="4" width="14.1328125" customWidth="1"/>
+    <col min="5" max="5" width="13.59765625" customWidth="1"/>
+    <col min="6" max="6" width="16.86328125" customWidth="1"/>
+    <col min="7" max="7" width="13.86328125" customWidth="1"/>
+    <col min="8" max="8" width="14.265625" customWidth="1"/>
+    <col min="9" max="9" width="14.86328125" customWidth="1"/>
+    <col min="10" max="10" width="13.3984375" customWidth="1"/>
+    <col min="11" max="11" width="13.59765625" customWidth="1"/>
+    <col min="12" max="12" width="13.1328125" customWidth="1"/>
+    <col min="13" max="13" width="13.265625" customWidth="1"/>
+    <col min="14" max="14" width="13.86328125" customWidth="1"/>
+    <col min="15" max="15" width="17.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -3486,7 +3505,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="270.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="263.64999999999998" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -3503,7 +3522,7 @@
         <v>151</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>112</v>
@@ -3533,7 +3552,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3580,7 +3599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3625,7 +3644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>8</v>
       </c>
@@ -3670,7 +3689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>9</v>
       </c>
@@ -3715,7 +3734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>10</v>
       </c>
@@ -3760,7 +3779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>11</v>
       </c>
@@ -3805,7 +3824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>12</v>
       </c>
@@ -3850,7 +3869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>14</v>
       </c>
@@ -3895,7 +3914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>18</v>
       </c>
@@ -3940,7 +3959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>21</v>
       </c>
@@ -3985,7 +4004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>24</v>
       </c>
@@ -4030,7 +4049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>26</v>
       </c>
@@ -4075,7 +4094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>27</v>
       </c>
@@ -4120,7 +4139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>34</v>
       </c>
@@ -4165,7 +4184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>35</v>
       </c>
@@ -4210,7 +4229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>36</v>
       </c>
@@ -4255,7 +4274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>41</v>
       </c>
@@ -4300,7 +4319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>43</v>
       </c>
@@ -4345,7 +4364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>44</v>
       </c>
@@ -4390,7 +4409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>46</v>
       </c>
@@ -4435,7 +4454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>47</v>
       </c>
@@ -4480,7 +4499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>48</v>
       </c>
@@ -4525,7 +4544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>49</v>
       </c>
@@ -4572,7 +4591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>53</v>
       </c>
@@ -4617,7 +4636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>54</v>
       </c>
@@ -4673,24 +4692,24 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="29.625" customWidth="1"/>
-    <col min="3" max="3" width="27.75" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
-    <col min="5" max="5" width="17.75" customWidth="1"/>
-    <col min="6" max="6" width="15.125" customWidth="1"/>
-    <col min="7" max="7" width="14.125" customWidth="1"/>
-    <col min="8" max="8" width="14.25" customWidth="1"/>
-    <col min="9" max="9" width="11.625" customWidth="1"/>
-    <col min="10" max="10" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="29.59765625" customWidth="1"/>
+    <col min="3" max="3" width="27.73046875" customWidth="1"/>
+    <col min="4" max="4" width="13.1328125" customWidth="1"/>
+    <col min="5" max="5" width="17.73046875" customWidth="1"/>
+    <col min="6" max="6" width="15.1328125" customWidth="1"/>
+    <col min="7" max="7" width="14.1328125" customWidth="1"/>
+    <col min="8" max="8" width="14.265625" customWidth="1"/>
+    <col min="9" max="9" width="11.59765625" customWidth="1"/>
+    <col min="10" max="10" width="13.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -4707,7 +4726,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="291.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="291.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -4724,7 +4743,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -4741,7 +4760,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4749,7 +4768,7 @@
         <v>152</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -4758,7 +4777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2</v>
       </c>
@@ -4775,7 +4794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>3</v>
       </c>
@@ -4792,7 +4811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>4</v>
       </c>
@@ -4823,17 +4842,17 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="16.875" customWidth="1"/>
+    <col min="2" max="2" width="11.73046875" customWidth="1"/>
+    <col min="4" max="4" width="11.86328125" customWidth="1"/>
+    <col min="5" max="5" width="16.86328125" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="10.25" customWidth="1"/>
-    <col min="8" max="8" width="12.375" customWidth="1"/>
+    <col min="7" max="7" width="10.265625" customWidth="1"/>
+    <col min="8" max="8" width="12.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -4859,7 +4878,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -4885,7 +4904,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -4925,19 +4944,19 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.125" customWidth="1"/>
-    <col min="2" max="2" width="13.875" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="21.875" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="11.875" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="15.1328125" customWidth="1"/>
+    <col min="2" max="2" width="13.86328125" customWidth="1"/>
+    <col min="3" max="3" width="13.3984375" customWidth="1"/>
+    <col min="4" max="4" width="14.46484375" customWidth="1"/>
+    <col min="5" max="5" width="21.86328125" customWidth="1"/>
+    <col min="6" max="6" width="14.46484375" customWidth="1"/>
+    <col min="7" max="7" width="11.86328125" customWidth="1"/>
+    <col min="8" max="8" width="14.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -4963,7 +4982,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="55.5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -4989,7 +5008,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -5029,25 +5048,25 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="21.125" customWidth="1"/>
-    <col min="4" max="4" width="15.375" customWidth="1"/>
+    <col min="1" max="1" width="12.59765625" customWidth="1"/>
+    <col min="2" max="2" width="13.46484375" customWidth="1"/>
+    <col min="3" max="3" width="21.1328125" customWidth="1"/>
+    <col min="4" max="4" width="15.3984375" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="13.25" customWidth="1"/>
-    <col min="7" max="7" width="12.75" customWidth="1"/>
-    <col min="8" max="8" width="13.125" customWidth="1"/>
-    <col min="9" max="9" width="13.25" customWidth="1"/>
-    <col min="10" max="10" width="12.875" customWidth="1"/>
-    <col min="11" max="11" width="13.125" customWidth="1"/>
+    <col min="6" max="6" width="13.265625" customWidth="1"/>
+    <col min="7" max="7" width="12.73046875" customWidth="1"/>
+    <col min="8" max="8" width="13.1328125" customWidth="1"/>
+    <col min="9" max="9" width="13.265625" customWidth="1"/>
+    <col min="10" max="10" width="12.86328125" customWidth="1"/>
+    <col min="11" max="11" width="13.1328125" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="13.75" customWidth="1"/>
-    <col min="14" max="15" width="13.625" customWidth="1"/>
+    <col min="13" max="13" width="13.73046875" customWidth="1"/>
+    <col min="14" max="15" width="13.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -5094,7 +5113,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="256.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="249.75" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -5141,7 +5160,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -5188,7 +5207,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -5233,7 +5252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2</v>
       </c>
@@ -5280,7 +5299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>3</v>
       </c>
@@ -5327,7 +5346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>4</v>
       </c>
@@ -5374,7 +5393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>5</v>
       </c>
@@ -5421,7 +5440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>6</v>
       </c>
@@ -5466,7 +5485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>7</v>
       </c>
@@ -5513,7 +5532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>8</v>
       </c>
@@ -5558,7 +5577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>9</v>
       </c>
@@ -5605,7 +5624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>10</v>
       </c>
@@ -5652,7 +5671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="7">
         <v>11</v>
       </c>
@@ -5675,7 +5694,7 @@
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>12</v>
       </c>
@@ -5720,7 +5739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>13</v>
       </c>
@@ -5765,7 +5784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>14</v>
       </c>
@@ -5810,7 +5829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="D18" s="10"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -5823,7 +5842,7 @@
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="D19" s="10"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -5835,7 +5854,7 @@
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="D20" s="10"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -5860,15 +5879,15 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="1" max="1" width="13.46484375" customWidth="1"/>
+    <col min="2" max="2" width="13.1328125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="13.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -5882,7 +5901,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -5896,7 +5915,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -5910,7 +5929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -5924,7 +5943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2</v>
       </c>
@@ -5938,7 +5957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>3</v>
       </c>
@@ -5952,7 +5971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>4</v>
       </c>
@@ -5966,7 +5985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>5</v>
       </c>
@@ -5980,7 +5999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>6</v>
       </c>
@@ -6008,14 +6027,14 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
-    <col min="3" max="3" width="47.125" customWidth="1"/>
+    <col min="2" max="2" width="12.1328125" customWidth="1"/>
+    <col min="3" max="3" width="47.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>77</v>
       </c>
@@ -6026,7 +6045,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6037,7 +6056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6048,7 +6067,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -6059,7 +6078,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6070,7 +6089,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -6081,7 +6100,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -6092,7 +6111,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="39.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="40.5" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -6103,7 +6122,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -6114,7 +6133,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>8</v>
       </c>
@@ -6125,7 +6144,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>9</v>
       </c>
@@ -6136,7 +6155,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10</v>
       </c>
@@ -6147,7 +6166,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>11</v>
       </c>
@@ -6158,7 +6177,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>12</v>
       </c>
@@ -6169,7 +6188,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>13</v>
       </c>
@@ -6180,7 +6199,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>14</v>
       </c>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutoChess\AutoChess\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66ECA098-2059-4FF3-84D6-B5128EDE369C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D1D0B0-5117-40D4-A8F3-669785E6D4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="3" xr2:uid="{D724F234-A033-4A6D-8515-80A5A5013602}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="1" xr2:uid="{D724F234-A033-4A6D-8515-80A5A5013602}"/>
   </bookViews>
   <sheets>
     <sheet name="Role" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="166">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -811,6 +811,23 @@
 2.获得金币
 3.商店更新
 4.获得装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生效时间:
+1.出售时
+2.购买时
+3.升级时
+4.吃食物时
+5.回合开始
+6.回合结束
+7.战斗开始
+8.攻击前
+9.攻击后
+10.受伤时
+11.晕厥时
+12.我方召唤或位置改变
+13.敌方召唤或位置改变</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1908,8 +1925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56C38EB-46F7-44FF-886B-4EDDC3D49D4A}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1979,7 +1996,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="235.9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" ht="194.25" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1993,7 +2010,7 @@
         <v>145</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>163</v>
@@ -4691,7 +4708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F10764-2E72-4255-A918-2C1BA9EB5CC6}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutoChess\AutoChess\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D1D0B0-5117-40D4-A8F3-669785E6D4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04ECC03C-7481-40E6-9042-890E08D4DF22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="1" xr2:uid="{D724F234-A033-4A6D-8515-80A5A5013602}"/>
   </bookViews>
